--- a/user_sheets/engenharia.xlsx
+++ b/user_sheets/engenharia.xlsx
@@ -9,61 +9,34 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="ln6JHhy2UeHGMkaR/cKiLIn8YTPhIiB1ldSEpeI1oQA="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="RK6dbq+yOiVHLvcpnrHxgR1ngLpst2pKomNBNv3TTGE="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>part_number</t>
+  </si>
+  <si>
+    <t>child_part_number</t>
   </si>
   <si>
     <t>parent_part_number</t>
   </si>
   <si>
-    <t>quantidade</t>
+    <t>quantidade_parent_part</t>
   </si>
   <si>
-    <t>materia_prima</t>
+    <t>quantidade_child_part</t>
   </si>
   <si>
-    <t>PROD-001</t>
+    <t>materia_prima_unidade</t>
   </si>
   <si>
-    <t>Não</t>
-  </si>
-  <si>
-    <t>ASSY-A</t>
-  </si>
-  <si>
-    <t>ASSY-B</t>
-  </si>
-  <si>
-    <t>COMP-001</t>
-  </si>
-  <si>
-    <t>RAW-MAT-001</t>
-  </si>
-  <si>
-    <t>Sim</t>
-  </si>
-  <si>
-    <t>COMP-002</t>
-  </si>
-  <si>
-    <t>RAW-MAT-002</t>
-  </si>
-  <si>
-    <t>RAW-MAT-003</t>
-  </si>
-  <si>
-    <t>SUB-COMP-01</t>
-  </si>
-  <si>
-    <t>RAW-MAT-004</t>
+    <t>materia_prima_quantidade</t>
   </si>
 </sst>
 </file>
@@ -97,11 +70,14 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -319,161 +295,63 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="13.29"/>
-    <col customWidth="1" min="2" max="2" width="19.14"/>
-    <col customWidth="1" min="3" max="3" width="10.86"/>
-    <col customWidth="1" min="4" max="4" width="13.71"/>
-    <col customWidth="1" min="5" max="26" width="8.71"/>
+    <col customWidth="1" min="2" max="3" width="19.14"/>
+    <col customWidth="1" min="4" max="4" width="22.14"/>
+    <col customWidth="1" min="5" max="6" width="13.71"/>
+    <col customWidth="1" min="7" max="28" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
+      <c r="A2" s="1" t="str">
+        <f t="shared" ref="A2:G2" si="1">concat(A1,";")</f>
+        <v>part_number;</v>
       </c>
-      <c r="C2" s="1">
-        <v>1.0</v>
+      <c r="B2" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>child_part_number;</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
+      <c r="C2" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>parent_part_number;</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
+      <c r="D2" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>quantidade_parent_part;</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
+      <c r="E2" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>quantidade_child_part;</v>
       </c>
-      <c r="C3" s="1">
-        <v>1.0</v>
+      <c r="F2" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>materia_prima_unidade;</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="1">
-        <v>20.0</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>10</v>
+      <c r="G2" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>materia_prima_quantidade;</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
